--- a/GenerateCapsule.xlsx
+++ b/GenerateCapsule.xlsx
@@ -1890,6 +1890,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1900,27 +1909,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1932,14 +1923,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2244,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,10 +2267,10 @@
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="6" t="s">
         <v>236</v>
       </c>
@@ -2288,10 +2288,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2315,8 +2315,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2338,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
@@ -2361,8 +2361,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="5" t="s">
         <v>51</v>
       </c>
@@ -2379,13 +2379,13 @@
         <v>343</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="5" t="s">
         <v>53</v>
       </c>
@@ -2402,11 +2402,11 @@
         <v>344</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="47"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="5" t="s">
         <v>54</v>
       </c>
@@ -2428,8 +2428,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
         <v>55</v>
       </c>
@@ -2451,8 +2451,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="5" t="s">
         <v>58</v>
       </c>
@@ -2474,8 +2474,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
@@ -2497,8 +2497,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
@@ -2520,8 +2520,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
@@ -2543,8 +2543,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
@@ -2566,8 +2566,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="2" t="s">
         <v>143</v>
       </c>
@@ -2589,8 +2589,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2612,8 +2612,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2635,8 +2635,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
@@ -2658,8 +2658,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
@@ -2681,8 +2681,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
         <v>474</v>
       </c>
@@ -2704,8 +2704,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2727,8 +2727,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2750,8 +2750,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2773,8 +2773,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2796,8 +2796,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
@@ -2819,8 +2819,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5" t="s">
         <v>69</v>
       </c>
@@ -2842,8 +2842,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="5" t="s">
         <v>70</v>
       </c>
@@ -2865,8 +2865,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="5" t="s">
         <v>71</v>
       </c>
@@ -2888,8 +2888,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="5" t="s">
         <v>72</v>
       </c>
@@ -2911,13 +2911,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="35" t="s">
         <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2938,9 +2938,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="2" t="s">
         <v>165</v>
       </c>
@@ -2957,9 +2957,9 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="2" t="s">
         <v>166</v>
       </c>
@@ -2976,9 +2976,9 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="2" t="s">
         <v>168</v>
       </c>
@@ -2995,9 +2995,9 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="2" t="s">
         <v>167</v>
       </c>
@@ -3014,9 +3014,9 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="32" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="35" t="s">
         <v>160</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -3037,9 +3037,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="2" t="s">
         <v>165</v>
       </c>
@@ -3056,9 +3056,9 @@
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="2" t="s">
         <v>167</v>
       </c>
@@ -3075,8 +3075,8 @@
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="2" t="s">
         <v>22</v>
       </c>
@@ -3098,9 +3098,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="32" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="35" t="s">
         <v>183</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3116,14 +3116,14 @@
         <v>376</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="35" t="s">
+      <c r="I38" s="43" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="1" t="s">
         <v>171</v>
       </c>
@@ -3137,12 +3137,12 @@
         <v>377</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="36"/>
+      <c r="I39" s="45"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="1" t="s">
         <v>172</v>
       </c>
@@ -3156,12 +3156,12 @@
         <v>378</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="33"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="1" t="s">
         <v>174</v>
       </c>
@@ -3175,12 +3175,12 @@
         <v>379</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="33"/>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="33"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="1" t="s">
         <v>175</v>
       </c>
@@ -3194,12 +3194,12 @@
         <v>380</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="33"/>
+      <c r="I42" s="36"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="1" t="s">
         <v>180</v>
       </c>
@@ -3213,12 +3213,12 @@
         <v>381</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="I43" s="34"/>
+      <c r="I43" s="37"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="32" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="35" t="s">
         <v>182</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -3234,14 +3234,14 @@
         <v>382</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="33"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="8" t="s">
         <v>78</v>
       </c>
@@ -3255,12 +3255,12 @@
         <v>383</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="33"/>
+      <c r="I45" s="36"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="33"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="8" t="s">
         <v>79</v>
       </c>
@@ -3274,12 +3274,12 @@
         <v>384</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="34"/>
+      <c r="I46" s="37"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="32" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="35" t="s">
         <v>185</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -3295,14 +3295,14 @@
         <v>385</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="33"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="8" t="s">
         <v>191</v>
       </c>
@@ -3316,12 +3316,12 @@
         <v>386</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="33"/>
+      <c r="I48" s="36"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="33"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="8" t="s">
         <v>193</v>
       </c>
@@ -3335,12 +3335,12 @@
         <v>387</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="34"/>
+      <c r="I49" s="37"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="32" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="35" t="s">
         <v>143</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -3356,14 +3356,14 @@
         <v>388</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="32" t="s">
+      <c r="I50" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="34"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="8" t="s">
         <v>198</v>
       </c>
@@ -3377,12 +3377,12 @@
         <v>389</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="34"/>
+      <c r="I51" s="37"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="32" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -3398,14 +3398,14 @@
         <v>390</v>
       </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="32" t="s">
+      <c r="I52" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="33"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="8" t="s">
         <v>89</v>
       </c>
@@ -3419,12 +3419,12 @@
         <v>391</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="33"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="34"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="8" t="s">
         <v>88</v>
       </c>
@@ -3438,12 +3438,12 @@
         <v>392</v>
       </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="34"/>
+      <c r="I54" s="37"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="32" t="s">
+      <c r="A55" s="42"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -3459,14 +3459,14 @@
         <v>393</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="32" t="s">
+      <c r="I55" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="33"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="8" t="s">
         <v>86</v>
       </c>
@@ -3480,12 +3480,12 @@
         <v>394</v>
       </c>
       <c r="H56" s="7"/>
-      <c r="I56" s="33"/>
+      <c r="I56" s="36"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="34"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="8" t="s">
         <v>87</v>
       </c>
@@ -3499,12 +3499,12 @@
         <v>395</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="34"/>
+      <c r="I57" s="37"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="35" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="43" t="s">
         <v>195</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -3520,14 +3520,14 @@
         <v>396</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="32" t="s">
+      <c r="I58" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="33"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="8" t="s">
         <v>207</v>
       </c>
@@ -3541,12 +3541,12 @@
         <v>397</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="33"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="34"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="8" t="s">
         <v>206</v>
       </c>
@@ -3560,12 +3560,12 @@
         <v>398</v>
       </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="34"/>
+      <c r="I60" s="37"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="32" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -3581,14 +3581,14 @@
         <v>399</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="32" t="s">
+      <c r="I61" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="33"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="8" t="s">
         <v>92</v>
       </c>
@@ -3602,12 +3602,12 @@
         <v>400</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="33"/>
+      <c r="I62" s="36"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="34"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="8" t="s">
         <v>93</v>
       </c>
@@ -3621,12 +3621,12 @@
         <v>401</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="34"/>
+      <c r="I63" s="37"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="32" t="s">
+      <c r="A64" s="42"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -3642,14 +3642,14 @@
         <v>402</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="32" t="s">
+      <c r="I64" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="33"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="36"/>
       <c r="D65" s="8" t="s">
         <v>95</v>
       </c>
@@ -3663,12 +3663,12 @@
         <v>403</v>
       </c>
       <c r="H65" s="7"/>
-      <c r="I65" s="33"/>
+      <c r="I65" s="36"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="34"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="8" t="s">
         <v>96</v>
       </c>
@@ -3682,11 +3682,11 @@
         <v>404</v>
       </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="34"/>
+      <c r="I66" s="37"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="40"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="20" t="s">
         <v>68</v>
       </c>
@@ -3701,13 +3701,13 @@
         <v>405</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="32" t="s">
+      <c r="I67" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="40"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="20" t="s">
         <v>69</v>
       </c>
@@ -3722,11 +3722,11 @@
         <v>406</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="34"/>
+      <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
-      <c r="B69" s="40"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="20" t="s">
         <v>70</v>
       </c>
@@ -3741,13 +3741,13 @@
         <v>407</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="32" t="s">
+      <c r="I69" s="35" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="40"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="2" t="s">
         <v>71</v>
       </c>
@@ -3762,12 +3762,12 @@
         <v>408</v>
       </c>
       <c r="H70" s="7"/>
-      <c r="I70" s="34"/>
+      <c r="I70" s="37"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="43" t="s">
+      <c r="A71" s="42"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="40" t="s">
         <v>31</v>
       </c>
       <c r="D71" s="21" t="s">
@@ -3783,14 +3783,14 @@
         <v>409</v>
       </c>
       <c r="H71" s="7"/>
-      <c r="I71" s="32" t="s">
+      <c r="I71" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="43"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="40"/>
       <c r="D72" s="21" t="s">
         <v>99</v>
       </c>
@@ -3804,12 +3804,12 @@
         <v>410</v>
       </c>
       <c r="H72" s="7"/>
-      <c r="I72" s="33"/>
+      <c r="I72" s="36"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="43"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="40"/>
       <c r="D73" s="21" t="s">
         <v>98</v>
       </c>
@@ -3823,12 +3823,12 @@
         <v>411</v>
       </c>
       <c r="H73" s="7"/>
-      <c r="I73" s="34"/>
+      <c r="I73" s="37"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="43" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="40" t="s">
         <v>224</v>
       </c>
       <c r="D74" s="21" t="s">
@@ -3844,12 +3844,12 @@
         <v>412</v>
       </c>
       <c r="H74" s="7"/>
-      <c r="I74" s="32"/>
+      <c r="I74" s="35"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="43"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="40"/>
       <c r="D75" s="21" t="s">
         <v>225</v>
       </c>
@@ -3863,12 +3863,12 @@
         <v>413</v>
       </c>
       <c r="H75" s="7"/>
-      <c r="I75" s="33"/>
+      <c r="I75" s="36"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="43"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="40"/>
       <c r="D76" s="21" t="s">
         <v>228</v>
       </c>
@@ -3882,11 +3882,11 @@
         <v>414</v>
       </c>
       <c r="H76" s="7"/>
-      <c r="I76" s="34"/>
+      <c r="I76" s="37"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45" t="s">
+      <c r="A77" s="42"/>
+      <c r="B77" s="42" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -3908,8 +3908,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="14" t="s">
         <v>73</v>
       </c>
@@ -3931,8 +3931,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="14" t="s">
         <v>333</v>
       </c>
@@ -3954,8 +3954,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="22" t="s">
         <v>334</v>
       </c>
@@ -3977,8 +3977,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="2" t="s">
         <v>103</v>
       </c>
@@ -3998,8 +3998,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="2" t="s">
         <v>104</v>
       </c>
@@ -4019,8 +4019,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="2" t="s">
         <v>105</v>
       </c>
@@ -4040,8 +4040,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
@@ -4063,8 +4063,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="2" t="s">
         <v>106</v>
       </c>
@@ -4086,8 +4086,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="2" t="s">
         <v>109</v>
       </c>
@@ -4109,8 +4109,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="22" t="s">
         <v>74</v>
       </c>
@@ -4132,8 +4132,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="22" t="s">
         <v>110</v>
       </c>
@@ -4155,8 +4155,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="22" t="s">
         <v>111</v>
       </c>
@@ -4178,8 +4178,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="22" t="s">
         <v>75</v>
       </c>
@@ -4201,8 +4201,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="22" t="s">
         <v>112</v>
       </c>
@@ -4224,8 +4224,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
@@ -4247,8 +4247,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="22" t="s">
         <v>113</v>
       </c>
@@ -4270,9 +4270,9 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="43" t="s">
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="40" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -4293,9 +4293,9 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="43"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="40"/>
       <c r="D95" s="2" t="s">
         <v>261</v>
       </c>
@@ -4314,9 +4314,9 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="43"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="40"/>
       <c r="D96" s="2" t="s">
         <v>262</v>
       </c>
@@ -4335,9 +4335,9 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="43" t="s">
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="40" t="s">
         <v>44</v>
       </c>
       <c r="D97" s="8" t="s">
@@ -4358,9 +4358,9 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="43"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="40"/>
       <c r="D98" s="8" t="s">
         <v>114</v>
       </c>
@@ -4379,8 +4379,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="17" t="s">
         <v>45</v>
       </c>
@@ -4402,9 +4402,9 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="32" t="s">
+      <c r="A100" s="42"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="8" t="s">
@@ -4425,9 +4425,9 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="34"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="37"/>
       <c r="D101" s="8" t="s">
         <v>84</v>
       </c>
@@ -4446,9 +4446,9 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="45"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="43" t="s">
+      <c r="A102" s="42"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="40" t="s">
         <v>34</v>
       </c>
       <c r="D102" s="18" t="s">
@@ -4469,9 +4469,9 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="45"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="43"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="40"/>
       <c r="D103" s="19" t="s">
         <v>118</v>
       </c>
@@ -4490,9 +4490,9 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="43" t="s">
+      <c r="A104" s="42"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="40" t="s">
         <v>29</v>
       </c>
       <c r="D104" s="8" t="s">
@@ -4513,9 +4513,9 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="43"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="40"/>
       <c r="D105" s="19" t="s">
         <v>120</v>
       </c>
@@ -4534,9 +4534,9 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="45"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="43" t="s">
+      <c r="A106" s="42"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="40" t="s">
         <v>30</v>
       </c>
       <c r="D106" s="8" t="s">
@@ -4557,9 +4557,9 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="43"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="40"/>
       <c r="D107" s="8" t="s">
         <v>122</v>
       </c>
@@ -4578,9 +4578,9 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="32" t="s">
+      <c r="A108" s="42"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="35" t="s">
         <v>159</v>
       </c>
       <c r="D108" s="19"/>
@@ -4594,9 +4594,9 @@
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="34"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
       <c r="F109" s="22" t="s">
@@ -4609,8 +4609,8 @@
       <c r="I109" s="10"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
-      <c r="B110" s="45"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="42"/>
       <c r="C110" s="2" t="s">
         <v>46</v>
       </c>
@@ -4637,17 +4637,17 @@
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
       <c r="E111" s="27"/>
-      <c r="F111" s="48"/>
+      <c r="F111" s="32"/>
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
       <c r="J111" s="26"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="39" t="s">
+      <c r="A112" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="39" t="s">
+      <c r="B112" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -4671,8 +4671,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
-      <c r="B113" s="40"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="2" t="s">
         <v>292</v>
       </c>
@@ -4692,8 +4692,8 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="39" t="s">
+      <c r="A114" s="39"/>
+      <c r="B114" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="14" t="s">
@@ -4717,8 +4717,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
-      <c r="B115" s="40"/>
+      <c r="A115" s="39"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="22" t="s">
         <v>296</v>
       </c>
@@ -4740,8 +4740,8 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
-      <c r="B116" s="40"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="2" t="s">
         <v>106</v>
       </c>
@@ -4763,8 +4763,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="40"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="2" t="s">
         <v>26</v>
       </c>
@@ -4786,8 +4786,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
-      <c r="B118" s="40"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="2" t="s">
         <v>125</v>
       </c>
@@ -4809,8 +4809,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="40"/>
+      <c r="A119" s="39"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="22" t="s">
         <v>124</v>
       </c>
@@ -4832,8 +4832,8 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="40"/>
+      <c r="A120" s="39"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="22" t="s">
         <v>111</v>
       </c>
@@ -4855,8 +4855,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="40"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="22" t="s">
         <v>110</v>
       </c>
@@ -4878,8 +4878,8 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
-      <c r="B122" s="40"/>
+      <c r="A122" s="39"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="22" t="s">
         <v>112</v>
       </c>
@@ -4901,8 +4901,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
-      <c r="B123" s="40"/>
+      <c r="A123" s="39"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="22" t="s">
         <v>126</v>
       </c>
@@ -4924,7 +4924,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
+      <c r="A124" s="38" t="s">
         <v>127</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -4949,14 +4949,14 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
-      <c r="B125" s="42" t="s">
+      <c r="A125" s="39"/>
+      <c r="B125" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="37"/>
-      <c r="D125" s="38"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="47"/>
       <c r="E125" s="25"/>
-      <c r="F125" s="48"/>
+      <c r="F125" s="32"/>
       <c r="G125" s="12" t="s">
         <v>462</v>
       </c>
@@ -4964,12 +4964,12 @@
       <c r="I125" s="13"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
-      <c r="B126" s="42"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="38"/>
+      <c r="A126" s="44"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="47"/>
       <c r="E126" s="25"/>
-      <c r="F126" s="48"/>
+      <c r="F126" s="32"/>
       <c r="G126" s="12" t="s">
         <v>463</v>
       </c>
@@ -4978,6 +4978,36 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="I38:I43"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A112:A123"/>
+    <mergeCell ref="B77:B110"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A29:A110"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="B29:B76"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C60"/>
     <mergeCell ref="B2:B28"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="I74:I76"/>
@@ -4994,37 +5024,7 @@
     <mergeCell ref="I61:I63"/>
     <mergeCell ref="C74:C76"/>
     <mergeCell ref="I67:I68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A112:A123"/>
-    <mergeCell ref="B77:B110"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A29:A110"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="B29:B76"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C94:C96"/>
     <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="I38:I43"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="I47:I49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GenerateCapsule.xlsx
+++ b/GenerateCapsule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="506">
   <si>
     <t>Result</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve"> --debug [0-9]</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Pfx file incorrect</t>
@@ -524,9 +521,6 @@
     <t>Output file use .txt format</t>
   </si>
   <si>
-    <t xml:space="preserve"> test.txt-e -o xx.cap --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
-  </si>
-  <si>
     <t>Set EFI_CAPSULE_HEADER.Flags=PersistAcrossReset</t>
   </si>
   <si>
@@ -645,30 +639,12 @@
     <t>test.cap -e -o xx.cap --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem --monotonic-count 0x00 --hardware-instance 0xffffffffffffffff</t>
   </si>
   <si>
-    <t>test.cap -e -o xx.cap --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem --monotonic-count 0x128--hardware-instance 0x00</t>
-  </si>
-  <si>
-    <t>test.cap -e -o xx.cap --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem --monotonic-count 0xffffffffffffffff-hardware-instance 0x128</t>
-  </si>
-  <si>
     <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x00 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
   </si>
   <si>
-    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x5678--lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0xFFFFFFFF--lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x12 --lsv 0x00-guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
-  </si>
-  <si>
     <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x12 --lsv 0x11223344 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
   </si>
   <si>
-    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x12 --lsv 0xffffffff--guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
-  </si>
-  <si>
     <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem -v</t>
   </si>
   <si>
@@ -705,9 +681,6 @@
     <t>version= 0xffff ,lsv=0xffff,guid=ac29b86f-7a25-4096-8203-5c7aa5284ee6,capflag=PersistAcrossReset + + PopulateSystemTable + InitiateReset ,oemflag=0xffff,haedware-instance=ffff,Monotonic-cont= ffff  use cert fle encode</t>
   </si>
   <si>
-    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x00 --lsv 0x00 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --pfx-file TestRoot.pfx --capflag PersistAcrossReset --capoemflag 0x00 --monotonic-count 0x00 --hardware-instance 0x00 -q--debug 0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> test.cap -e -o xx.cap --version 0xffff --lsv 0xffff --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem --capflag PersistAcrossReset --capflag PopulateSystemTable --capflag InitiateReset --capoemflag 0xffff --monotonic-count 0xffff --hardware-instance 0x00 -v --debug 9</t>
   </si>
   <si>
@@ -750,9 +723,6 @@
     <t>GenerateCapsule: error: the following arguments are required: --version, --lsv, --guid</t>
   </si>
   <si>
-    <t>test.cap -e -o xx.cap --version 0x567--lsv 0x1234</t>
-  </si>
-  <si>
     <t>test.cap -e -o xx.cap --version 0x567</t>
   </si>
   <si>
@@ -762,16 +732,10 @@
     <t>GenerateCapsule: error: certificate file arguments are required: --pfx-file | [--signer-private-cert --other-public-cert --trusted-public-cert]</t>
   </si>
   <si>
-    <t>test.cap -e -o xx.cap --version 0x567--lsv 0x1234 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6</t>
-  </si>
-  <si>
     <t>test.cap -e -o xx.cap --version 0x1122 --lsv 0x2233 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --pfx-file test.pfx</t>
   </si>
   <si>
     <t>SignTool Error: No certificates were found that met all the given criteria |  GenerateCapsule: error: can not sign payload | and some python error</t>
-  </si>
-  <si>
-    <t>test.cap -e -o xx.cap --version 0x1122 --lsv 0x2233 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --pfx-file11.pfx</t>
   </si>
   <si>
     <t>GenerateCapsule: error: argument --pfx-file: can't open 'empty.pfx': [Errno 2] No such file or directory: 'empty.pfx'</t>
@@ -936,13 +900,7 @@
     <t>GenerateCapsule: error: argument  --hardware-instance-  ssssis not a valid integer value</t>
   </si>
   <si>
-    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x100000000--lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
-  </si>
-  <si>
     <t>GenerateCapsule: error: can not encode FMP Payload Header</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> test.cap -e -o xx.cap --version ssss--lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
   </si>
   <si>
     <t>GenerateCapsule: error: argument --version: ssss is not a valid integer value.</t>
@@ -1234,9 +1192,6 @@
     <t xml:space="preserve"> test.bin -e -o xx.cap --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
   </si>
   <si>
-    <t xml:space="preserve"> test.cap -e -o xx.bin--version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
-  </si>
-  <si>
     <t xml:space="preserve"> test.cap -e -o xx.txt --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
   </si>
   <si>
@@ -1655,6 +1610,132 @@
   </si>
   <si>
     <t>argument --debug: expected one argument</t>
+  </si>
+  <si>
+    <t>argument --trusted-public-cert: expected one argument</t>
+  </si>
+  <si>
+    <t>argument --signing-tool-path: expected one argument</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.cap -e -o xx.cap --version ssss --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x100000000 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
+  </si>
+  <si>
+    <t>argument --version: ssss is not a valid integer value</t>
+  </si>
+  <si>
+    <t>argument --other-public-cert: can't open 'empty.pem': [Errno 2] No such file or directory: 'empty.pem'</t>
+  </si>
+  <si>
+    <t>argument --trusted-public-cert: can't open 'error.pem': [Errno 2] No such file or directory: 'error.pem'</t>
+  </si>
+  <si>
+    <t>argument --debug: invalid choice: 10 (choose from 0, 1, 2, 3, 4, 5, 6, 7, 8, 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.txt -e -o xx.cap --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.cap -e -o xx.bin --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
+  </si>
+  <si>
+    <t>test.cap -e -o xx.cap --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem --monotonic-count 0x128 --hardware-instance 0x00</t>
+  </si>
+  <si>
+    <t>test.cap -e -o xx.cap --version 0x12 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem --monotonic-count 0xffffffffffffffff --hardware-instance 0x128</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x5678 --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0xFFFFFFFF --lsv 456 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x12 --lsv 0x00 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x12 --lsv 0xffffffff --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --signer-private-cert TestCert.pem --other-public-cert TestSub.pub.pem --trusted-public-cert TestRoot.pub.pem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.cap -e -o xx.cap --version 0x00 --lsv 0x00 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --pfx-file TestRoot.pfx --capflag PersistAcrossReset --capoemflag 0x00 --monotonic-count 0x00 --hardware-instance 0x00 -q --debug 0</t>
+  </si>
+  <si>
+    <t>argument InputFile: can't open 'empty.cap': [Errno 2] No such file or directory: 'empty.cap'</t>
+  </si>
+  <si>
+    <t>the following arguments are required: --version, --lsv, --guid</t>
+  </si>
+  <si>
+    <t>test.cap -e -o xx.cap --version 0x567 --lsv 0x1234</t>
+  </si>
+  <si>
+    <t>test.cap -e -o xx.cap --version 0x567 --lsv 0x1234 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6</t>
+  </si>
+  <si>
+    <t>certificate file arguments are required: --pfx-file | [--signer-private-cert --other-public-cert --trusted-public-cert]</t>
+  </si>
+  <si>
+    <t>xx.cap &amp; test</t>
+  </si>
+  <si>
+    <t>argument --pfx-file: can't open 'test.pfx': [Errno 2] No such file or directory: 'test.pfx'</t>
+  </si>
+  <si>
+    <t>test.cap -e -o xx.cap --version 0x1122 --lsv 0x2233 --guid ac29b86f-7a25-4096-8203-5c7aa5284ee6 --pfx-file 11.pfx</t>
+  </si>
+  <si>
+    <t>argument --signer-private-cert: can't open 'error.pem': [Errno 2] No such file or directory: 'error.pem'</t>
+  </si>
+  <si>
+    <t>argument --signer-private-cert: can't open '11.pem': [Errno 2] No such file or directory: '11.pem'</t>
+  </si>
+  <si>
+    <t>argument --other-public-cert: can't open 'error.pem': [Errno 2] No such file or directory: 'error.pem'</t>
+  </si>
+  <si>
+    <t>argument --other-public-cert: can't open '11.pem': [Errno 2] No such file or directory: '11.pem'</t>
+  </si>
+  <si>
+    <t>argument --trusted-public-cert: can't open '11.pem': [Errno 2] No such file or directory: '11.pem'</t>
+  </si>
+  <si>
+    <t>argument --capflag: invalid choice: 'test' (choose from 'PersistAcrossReset', 'PopulateSystemTable', 'InitiateReset')</t>
+  </si>
+  <si>
+    <t>argument --capoemflag: sssss is not a valid integer value</t>
+  </si>
+  <si>
+    <t>argument --guid: 12345678-1111 is not a valid registry format GUID value</t>
+  </si>
+  <si>
+    <t>argument --hardware-instance: ssss is not a valid integer value</t>
+  </si>
+  <si>
+    <t>argument --monotonic-count: ssss is not a valid integer value</t>
+  </si>
+  <si>
+    <t>argument --lsv: ssss is not a valid integer value</t>
+  </si>
+  <si>
+    <t>argument InputFile: can't open 'xx.cap': [Errno 2] No such file or directory: 'xx.cap'</t>
+  </si>
+  <si>
+    <t>argument --pfx-file: can't open 'empty.pfx': [Errno 2] No such file or directory: 'empty.pfx'</t>
+  </si>
+  <si>
+    <t>argument --signer-private-cert: can't open 'empty.pem': [Errno 2] No such file or directory: 'empty.pem'</t>
+  </si>
+  <si>
+    <t>argument --trusted-public-cert: can't open 'empty.pem': [Errno 2] No such file or directory: 'empty.pem'</t>
+  </si>
+  <si>
+    <t>error: argument --trusted-public-cert: can't open 'error.pem': [Errno 2] No such file or directory: 'error.pem'</t>
+  </si>
+  <si>
+    <t>argument --pfx-file: can't open '11.pfx': [Errno 2] No such file or directory: '11.pfx'</t>
   </si>
 </sst>
 </file>
@@ -2244,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,10 +2353,10 @@
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -2289,117 +2370,117 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="34"/>
@@ -2408,92 +2489,92 @@
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2503,20 +2584,20 @@
         <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2526,20 +2607,20 @@
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2549,43 +2630,43 @@
         <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2595,20 +2676,20 @@
         <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2618,20 +2699,20 @@
         <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2641,20 +2722,20 @@
         <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2664,43 +2745,43 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2710,20 +2791,20 @@
         <v>18</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2733,20 +2814,20 @@
         <v>19</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2756,20 +2837,20 @@
         <v>20</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>32</v>
+        <v>464</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2779,135 +2860,135 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>32</v>
+        <v>465</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="44"/>
       <c r="C28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2918,23 +2999,23 @@
         <v>1</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2942,16 +3023,16 @@
       <c r="B30" s="39"/>
       <c r="C30" s="36"/>
       <c r="D30" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="9"/>
@@ -2961,16 +3042,16 @@
       <c r="B31" s="39"/>
       <c r="C31" s="36"/>
       <c r="D31" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
@@ -2980,16 +3061,16 @@
       <c r="B32" s="39"/>
       <c r="C32" s="36"/>
       <c r="D32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="9"/>
@@ -2999,16 +3080,16 @@
       <c r="B33" s="39"/>
       <c r="C33" s="37"/>
       <c r="D33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>338</v>
+        <v>473</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
@@ -3017,23 +3098,23 @@
       <c r="A34" s="42"/>
       <c r="B34" s="39"/>
       <c r="C34" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3041,16 +3122,16 @@
       <c r="B35" s="39"/>
       <c r="C35" s="36"/>
       <c r="D35" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="9"/>
@@ -3060,16 +3141,16 @@
       <c r="B36" s="39"/>
       <c r="C36" s="36"/>
       <c r="D36" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
@@ -3081,43 +3162,43 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="39"/>
       <c r="C38" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3125,16 +3206,16 @@
       <c r="B39" s="39"/>
       <c r="C39" s="36"/>
       <c r="D39" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="45"/>
@@ -3144,16 +3225,16 @@
       <c r="B40" s="39"/>
       <c r="C40" s="36"/>
       <c r="D40" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="36"/>
@@ -3163,16 +3244,16 @@
       <c r="B41" s="39"/>
       <c r="C41" s="36"/>
       <c r="D41" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="36"/>
@@ -3182,16 +3263,16 @@
       <c r="B42" s="39"/>
       <c r="C42" s="36"/>
       <c r="D42" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="36"/>
@@ -3201,16 +3282,16 @@
       <c r="B43" s="39"/>
       <c r="C43" s="37"/>
       <c r="D43" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="37"/>
@@ -3219,23 +3300,23 @@
       <c r="A44" s="42"/>
       <c r="B44" s="39"/>
       <c r="C44" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3243,16 +3324,16 @@
       <c r="B45" s="39"/>
       <c r="C45" s="36"/>
       <c r="D45" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="36"/>
@@ -3262,16 +3343,16 @@
       <c r="B46" s="39"/>
       <c r="C46" s="36"/>
       <c r="D46" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="37"/>
@@ -3280,23 +3361,23 @@
       <c r="A47" s="42"/>
       <c r="B47" s="39"/>
       <c r="C47" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3304,16 +3385,16 @@
       <c r="B48" s="39"/>
       <c r="C48" s="36"/>
       <c r="D48" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="36"/>
@@ -3323,16 +3404,16 @@
       <c r="B49" s="39"/>
       <c r="C49" s="36"/>
       <c r="D49" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="37"/>
@@ -3341,23 +3422,23 @@
       <c r="A50" s="42"/>
       <c r="B50" s="39"/>
       <c r="C50" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3365,16 +3446,16 @@
       <c r="B51" s="39"/>
       <c r="C51" s="37"/>
       <c r="D51" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="37"/>
@@ -3386,16 +3467,16 @@
         <v>17</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="35" t="s">
@@ -3407,16 +3488,16 @@
       <c r="B53" s="39"/>
       <c r="C53" s="36"/>
       <c r="D53" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="36"/>
@@ -3426,16 +3507,16 @@
       <c r="B54" s="39"/>
       <c r="C54" s="37"/>
       <c r="D54" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="37"/>
@@ -3447,20 +3528,20 @@
         <v>21</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3468,16 +3549,16 @@
       <c r="B56" s="39"/>
       <c r="C56" s="36"/>
       <c r="D56" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="36"/>
@@ -3487,16 +3568,16 @@
       <c r="B57" s="39"/>
       <c r="C57" s="37"/>
       <c r="D57" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="37"/>
@@ -3505,23 +3586,23 @@
       <c r="A58" s="42"/>
       <c r="B58" s="39"/>
       <c r="C58" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3529,16 +3610,16 @@
       <c r="B59" s="39"/>
       <c r="C59" s="36"/>
       <c r="D59" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>209</v>
+        <v>474</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="36"/>
@@ -3548,16 +3629,16 @@
       <c r="B60" s="39"/>
       <c r="C60" s="37"/>
       <c r="D60" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>210</v>
+        <v>475</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="37"/>
@@ -3569,20 +3650,20 @@
         <v>12</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3590,16 +3671,16 @@
       <c r="B62" s="39"/>
       <c r="C62" s="36"/>
       <c r="D62" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>212</v>
+        <v>476</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="36"/>
@@ -3609,16 +3690,16 @@
       <c r="B63" s="39"/>
       <c r="C63" s="37"/>
       <c r="D63" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>213</v>
+        <v>477</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="37"/>
@@ -3630,20 +3711,20 @@
         <v>11</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>214</v>
+        <v>478</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3651,16 +3732,16 @@
       <c r="B65" s="39"/>
       <c r="C65" s="36"/>
       <c r="D65" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="36"/>
@@ -3670,16 +3751,16 @@
       <c r="B66" s="39"/>
       <c r="C66" s="37"/>
       <c r="D66" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>216</v>
+        <v>479</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="37"/>
@@ -3688,38 +3769,38 @@
       <c r="A67" s="42"/>
       <c r="B67" s="39"/>
       <c r="C67" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="39"/>
       <c r="C68" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="37"/>
@@ -3728,38 +3809,38 @@
       <c r="A69" s="42"/>
       <c r="B69" s="39"/>
       <c r="C69" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
       <c r="B70" s="39"/>
       <c r="C70" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="37"/>
@@ -3771,16 +3852,16 @@
         <v>31</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="35" t="s">
@@ -3792,16 +3873,16 @@
       <c r="B72" s="39"/>
       <c r="C72" s="40"/>
       <c r="D72" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="36"/>
@@ -3811,16 +3892,16 @@
       <c r="B73" s="39"/>
       <c r="C73" s="40"/>
       <c r="D73" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="37"/>
@@ -3829,19 +3910,19 @@
       <c r="A74" s="42"/>
       <c r="B74" s="39"/>
       <c r="C74" s="40" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="35"/>
@@ -3851,16 +3932,16 @@
       <c r="B75" s="39"/>
       <c r="C75" s="40"/>
       <c r="D75" s="21" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>229</v>
+        <v>480</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="36"/>
@@ -3870,16 +3951,16 @@
       <c r="B76" s="39"/>
       <c r="C76" s="40"/>
       <c r="D76" s="21" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="37"/>
@@ -3894,333 +3975,333 @@
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>32</v>
+        <v>481</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="10" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="10" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="14" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="22" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>32</v>
+        <v>482</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="10" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="15" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>32</v>
+        <v>482</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15" t="s">
-        <v>244</v>
+        <v>483</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>32</v>
+        <v>482</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15" t="s">
-        <v>248</v>
+        <v>484</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>32</v>
+        <v>485</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="10" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>32</v>
+        <v>487</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="10" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>251</v>
+        <v>488</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>32</v>
+        <v>505</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="10" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>32</v>
+        <v>489</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>32</v>
+        <v>490</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>32</v>
+        <v>491</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>32</v>
+        <v>492</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>32</v>
+        <v>470</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>32</v>
+        <v>493</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4230,43 +4311,43 @@
         <v>27</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4276,20 +4357,20 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>32</v>
+        <v>494</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="10" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4297,20 +4378,20 @@
       <c r="B95" s="42"/>
       <c r="C95" s="40"/>
       <c r="D95" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>32</v>
+        <v>494</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="10" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4318,43 +4399,43 @@
       <c r="B96" s="42"/>
       <c r="C96" s="40"/>
       <c r="D96" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>32</v>
+        <v>494</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="10" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4362,43 +4443,43 @@
       <c r="B98" s="42"/>
       <c r="C98" s="40"/>
       <c r="D98" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>32</v>
+        <v>495</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="10" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>32</v>
+        <v>496</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="10" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4408,20 +4489,20 @@
         <v>28</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="10" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4429,43 +4510,43 @@
       <c r="B101" s="42"/>
       <c r="C101" s="37"/>
       <c r="D101" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>32</v>
+        <v>497</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="10" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="42"/>
       <c r="B102" s="42"/>
       <c r="C102" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="10" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4473,20 +4554,20 @@
       <c r="B103" s="42"/>
       <c r="C103" s="40"/>
       <c r="D103" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>32</v>
+        <v>498</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="10" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4496,20 +4577,20 @@
         <v>29</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>276</v>
+        <v>467</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="10" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4517,20 +4598,20 @@
       <c r="B105" s="42"/>
       <c r="C105" s="40"/>
       <c r="D105" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>278</v>
+        <v>466</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>32</v>
+        <v>468</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="10" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4540,20 +4621,20 @@
         <v>30</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="10" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4561,35 +4642,33 @@
       <c r="B107" s="42"/>
       <c r="C107" s="40"/>
       <c r="D107" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>32</v>
+        <v>499</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="10" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="42"/>
       <c r="C108" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="F108" s="22"/>
       <c r="G108" s="3" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="H108" s="7"/>
     </row>
@@ -4599,11 +4678,9 @@
       <c r="C109" s="37"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="F109" s="22"/>
       <c r="G109" s="3" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="10"/>
@@ -4612,23 +4689,23 @@
       <c r="A110" s="42"/>
       <c r="B110" s="42"/>
       <c r="C110" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>32</v>
+        <v>471</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="10" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4651,44 +4728,44 @@
         <v>1</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" s="10" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="23" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H113" s="11"/>
       <c r="I113" s="10" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4697,69 +4774,69 @@
         <v>2</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="22" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="10" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>32</v>
+        <v>501</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4769,163 +4846,163 @@
         <v>26</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>32</v>
+        <v>487</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="H117" s="11"/>
       <c r="I117" s="10" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>32</v>
+        <v>502</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="10" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="39"/>
       <c r="C119" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>32</v>
+        <v>489</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="H119" s="11"/>
       <c r="I119" s="10" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="39"/>
       <c r="C120" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>32</v>
+        <v>469</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="10" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="39"/>
       <c r="C121" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>32</v>
+        <v>491</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="H121" s="11"/>
       <c r="I121" s="10" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="39"/>
       <c r="C122" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>32</v>
+        <v>503</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="10" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>32</v>
+        <v>504</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" s="10" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>1</v>
@@ -4935,13 +5012,13 @@
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="18" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="1" t="s">
@@ -4958,7 +5035,7 @@
       <c r="E125" s="25"/>
       <c r="F125" s="32"/>
       <c r="G125" s="12" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="H125" s="12"/>
       <c r="I125" s="13"/>
@@ -4971,7 +5048,7 @@
       <c r="E126" s="25"/>
       <c r="F126" s="32"/>
       <c r="G126" s="12" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="H126" s="12"/>
       <c r="I126" s="13"/>
